--- a/itop/src/main/resources/export/ams-report-tpl.xlsx
+++ b/itop/src/main/resources/export/ams-report-tpl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -53,7 +53,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>数据可以后续再增加</t>
@@ -101,7 +100,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>模块</t>
@@ -347,21 +345,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,7 +375,6 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -391,14 +384,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -418,8 +404,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,7 +494,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +527,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
